--- a/shiny_application/global/database/dates.xlsx
+++ b/shiny_application/global/database/dates.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A117644\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794A5B3A-2548-408C-AA0E-4ED08ABCE0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="non work dates" sheetId="1" r:id="rId1"/>
+    <sheet name="non work dates" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>dates</t>
+    <t xml:space="preserve">dates</t>
   </si>
   <si>
-    <t>["2022-01-01","2022-01-02","2022-01-08","2022-01-09","2022-01-15","2022-01-16","2022-01-22","2022-01-23","2022-01-29","2022-01-30","2022-02-05","2022-02-06","2022-02-12","2022-02-13","2022-02-19","2022-02-20","2022-02-26","2022-02-27","2022-03-05","2022-03-06","2022-03-12","2022-03-13","2022-03-19","2022-03-20","2022-03-26","2022-03-27","2022-04-02","2022-04-03","2022-04-09","2022-04-10","2022-04-16","2022-04-17","2022-04-23","2022-04-24","2022-04-30","2022-05-01","2022-05-07","2022-05-08","2022-05-14","2022-05-15","2022-05-21","2022-05-22","2022-05-28","2022-05-29","2022-06-04","2022-06-05","2022-06-11","2022-06-12","2022-06-18","2022-06-19","2022-06-25","2022-06-26","2022-07-02","2022-07-03","2022-07-09","2022-07-10","2022-07-16","2022-07-17","2022-07-23","2022-07-24","2022-07-30","2022-07-31","2022-08-06","2022-08-07","2022-08-13","2022-08-14","2022-08-20","2022-08-21","2022-08-27","2022-08-28","2022-09-03","2022-09-04","2022-09-10","2022-09-11","2022-09-17","2022-09-18","2022-09-24","2022-09-25","2022-10-01","2022-10-02","2022-10-08","2022-10-09","2022-10-15","2022-10-16","2022-10-22","2022-10-23","2022-10-29","2022-10-30","2022-11-05","2022-11-06","2022-11-12","2022-11-13","2022-11-19","2022-11-20","2022-11-26","2022-11-27","2022-12-03","2022-12-04","2022-12-10","2022-12-11","2022-12-17","2022-12-18","2022-12-24","2022-12-25","2022-12-31"]</t>
+    <t xml:space="preserve">["2022-01-01","2022-01-02","2022-01-08","2022-01-09","2022-01-15","2022-01-16","2022-01-22","2022-01-23","2022-01-29","2022-01-30","2022-02-05","2022-02-06","2022-02-12","2022-02-13","2022-02-19","2022-02-20","2022-02-26","2022-02-27","2022-03-05","2022-03-06","2022-03-12","2022-03-13","2022-03-19","2022-03-20","2022-03-26","2022-03-27","2022-04-02","2022-04-03","2022-04-09","2022-04-10","2022-04-16","2022-04-17","2022-04-23","2022-04-24","2022-04-30","2022-05-01","2022-05-07","2022-05-08","2022-05-14","2022-05-15","2022-05-21","2022-05-22","2022-05-28","2022-05-29","2022-06-04","2022-06-05","2022-06-11","2022-06-12","2022-06-15","2022-06-17","2022-06-18","2022-06-19","2022-06-25","2022-06-26","2022-07-02","2022-07-03","2022-07-09","2022-07-10","2022-07-16","2022-07-17","2022-07-23","2022-07-24","2022-07-30","2022-07-31","2022-08-06","2022-08-07","2022-08-13","2022-08-14","2022-08-20","2022-08-21","2022-08-27","2022-08-28","2022-09-03","2022-09-04","2022-09-10","2022-09-11","2022-09-17","2022-09-18","2022-09-24","2022-09-25","2022-10-01","2022-10-02","2022-10-08","2022-10-09","2022-10-15","2022-10-16","2022-10-22","2022-10-23","2022-10-29","2022-10-30","2022-11-05","2022-11-06","2022-11-12","2022-11-13","2022-11-19","2022-11-20","2022-11-26","2022-11-27","2022-12-03","2022-12-04","2022-12-10","2022-12-11","2022-12-17","2022-12-18","2022-12-24","2022-12-25","2022-12-31"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -68,15 +61,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -358,27 +342,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>